--- a/ExcelFile/NhaXuatBan/Export/NXB.xlsx
+++ b/ExcelFile/NhaXuatBan/Export/NXB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam2HK2\JAVA2_DOAN_CuaHangGIay\ExcelFile\NhaXuatBan\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A715B-8332-46FE-BD21-8A0023E28C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="864" windowWidth="22428" windowHeight="8400"/>
+    <workbookView xWindow="5076" yWindow="1104" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NXB" sheetId="1" r:id="rId1"/>
@@ -14,21 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
-  <si>
-    <t>NXB-001</t>
-  </si>
-  <si>
-    <t>Kim Ðong</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55 Quang Trung, Hai Ba Trung, Ha Noi</t>
-  </si>
-  <si>
-    <t>0938786599</t>
-  </si>
-  <si>
-    <t>Kimdong@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Địa Chỉ</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>NXB-002</t>
@@ -64,48 +70,24 @@
     <t>NXB-004</t>
   </si>
   <si>
-    <t>Chinh tri quoc gia su that</t>
-  </si>
-  <si>
-    <t>So 6/86 Duy Tan, Cau Giay, Ha Noi</t>
-  </si>
-  <si>
-    <t>0876238766</t>
-  </si>
-  <si>
-    <t>ctqdst@gmail.com</t>
-  </si>
-  <si>
     <t>NXB-005</t>
   </si>
   <si>
-    <t>Giao duc Viet Nam</t>
-  </si>
-  <si>
-    <t>So 81 Tran Hung Dao, Hoan Kiem, Ha Noi</t>
-  </si>
-  <si>
-    <t>0989876765</t>
-  </si>
-  <si>
-    <t>Gdvn@gmail.com</t>
+    <t>Hoi Nha Van</t>
+  </si>
+  <si>
+    <t>So 65 Nguyen Du, Ha Noi</t>
+  </si>
+  <si>
+    <t>0998765476</t>
+  </si>
+  <si>
+    <t>hoinhavan@gmail.com</t>
   </si>
   <si>
     <t>NXB-006</t>
   </si>
   <si>
-    <t>Hoi Nha Van</t>
-  </si>
-  <si>
-    <t>So 65 Nguyen Du, Ha Noi</t>
-  </si>
-  <si>
-    <t>0998765476</t>
-  </si>
-  <si>
-    <t>hoinhavan@gmail.com</t>
-  </si>
-  <si>
     <t>NXB-007</t>
   </si>
   <si>
@@ -187,6 +169,9 @@
     <t>Dan tri</t>
   </si>
   <si>
+    <t>So 10, ngo 16, pho Hoang Cau, quan Dong Da, Ha Noi</t>
+  </si>
+  <si>
     <t>0988978763</t>
   </si>
   <si>
@@ -328,41 +313,31 @@
     <t>trithuc@gmail.com</t>
   </si>
   <si>
+    <t>NXB-022</t>
+  </si>
+  <si>
     <t>Y hoc</t>
   </si>
   <si>
+    <t>352 Doi Can, Ba Dinh, Ha Noi.</t>
+  </si>
+  <si>
     <t>0987865674</t>
   </si>
   <si>
     <t>Yhoc@gmail.com</t>
-  </si>
-  <si>
-    <t>So 10, ngo 16, pho Hoang Cau, quan Dong Da, Ha Noi</t>
-  </si>
-  <si>
-    <t>NXB-022</t>
-  </si>
-  <si>
-    <t>352 Doi Can, Ba Dinh, Ha Noi.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,13 +368,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,6 +383,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -426,44 +402,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -491,14 +467,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -526,6 +519,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,181 +547,156 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -770,329 +755,328 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>